--- a/PvZ Heroes Card Database.xlsx
+++ b/PvZ Heroes Card Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45c9bb75627c78a2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45c9bb75627c78a2/Desktop/GitHub/PvZHeroes-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="195" documentId="8_{CD78148F-DF0E-4645-BCBB-F57BBC7739C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1284663E-159E-48B4-8AEB-CF5DA2ABC262}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plants" sheetId="1" r:id="rId1"/>
@@ -4550,11 +4550,11 @@
   </sheetPr>
   <dimension ref="A1:AA977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37222,10 +37222,10 @@
   <dimension ref="A1:AB975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A253"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -70811,9 +70811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE76972C-F7BB-4769-A2DA-F955752C828E}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -71526,9 +71524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119F6436-4A53-4897-9FD1-3930D7723CA0}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/PvZ Heroes Card Database.xlsx
+++ b/PvZ Heroes Card Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45c9bb75627c78a2/Desktop/GitHub/PvZHeroes-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="8_{CD78148F-DF0E-4645-BCBB-F57BBC7739C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1284663E-159E-48B4-8AEB-CF5DA2ABC262}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{CD78148F-DF0E-4645-BCBB-F57BBC7739C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B02E8AE-624D-4961-BEEA-8371CE544C42}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plants" sheetId="1" r:id="rId1"/>
@@ -4211,7 +4211,728 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4226,6 +4947,80 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84B078DA-A650-40D6-97A2-741DC88B036B}" name="Plants" displayName="Plants" ref="A1:I252" totalsRowShown="0" headerRowDxfId="29" dataDxfId="30">
+  <autoFilter ref="A1:I252" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I252">
+    <sortCondition ref="A1:A252"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5E8557B2-2109-4AD5-96BF-E81A1BFEE863}" name="Name" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{B787AA71-4646-4D72-A8FF-DCCB1E442A4B}" name="Class" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{C885F8DA-D848-4199-B2E0-0C035FF1E61C}" name="Cost" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{B37FE480-05EA-4D0F-8355-4A5EAEBD2475}" name="Strength" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{A1E7D81B-CB74-4A1F-AC93-3915A68ACFD3}" name="Health" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{7E1E85C0-45A2-4182-932F-0D4908B7454B}" name="Description" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{6F896A04-7637-4F1B-B743-DD90A9B7E5CA}" name="Type" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{FCC3F927-0046-4808-AC06-401CB9EB1965}" name="Rarity" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{9EEA9C0F-4D95-4BED-815D-72D83C8EEC86}" name="Set" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FBCD08B8-E69B-4366-8280-3AF57267234C}" name="Zombies" displayName="Zombies" ref="A1:I253" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
+  <autoFilter ref="A1:I253" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I253">
+    <sortCondition ref="A1:A253"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{013338D0-C011-47AB-9089-3DB420A290BA}" name="Name" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{1F13FDF5-9F8E-4879-9117-E2B5600F7F66}" name="Class" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{44AEE046-4F90-46FD-8E2B-AE6F37CA7C8A}" name="Cost" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{FFD3C99D-D40A-4E1B-91DA-8C741144A0AD}" name="Strength" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{F3C12FD8-A86E-4D57-8396-71E2580DC2C6}" name="Health" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{336168F0-EFB4-4A59-AA0F-AED825C99E15}" name="Description" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{363A4FAE-BFB9-494D-AF3A-44A0F1BC2279}" name="Type" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{E239481D-E6E0-450D-87F5-C9730B7DEADD}" name="Rarity" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{E831B49A-916F-4B19-B463-266391CBD2BF}" name="Set" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0D25CD6-8026-4640-BF7E-4FBDEBC29D36}" name="PlantSupTricks" displayName="PlantSupTricks" ref="A1:G30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+  <autoFilter ref="A1:G30" xr:uid="{EE76972C-F7BB-4769-A2DA-F955752C828E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AB603B63-B567-4ED4-A630-DF5CA2E6C096}" name="Name" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{BAFDE408-3831-42FF-B686-B99453FB51C2}" name="Class" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{AE5EDBE1-741A-4B7F-9B6C-F4C6DBE87809}" name="Cost" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{B0C4C708-4045-49C4-8965-9ABE97215F80}" name="Description" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{1F5AB5EE-5336-4D21-9F1D-0BA737F55164}" name="Type" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{FBE30366-64A8-4849-A2DB-69EE086E944A}" name="Rarity" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C2C419A4-6090-4F09-942F-79F00D907169}" name="Heroes" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1E44ECCE-36A1-4766-BB32-2C2459030878}" name="ZomSupTricks" displayName="ZomSupTricks" ref="A1:G30" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G30" xr:uid="{1E44ECCE-36A1-4766-BB32-2C2459030878}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8CA809BB-3E67-484E-BC9D-8D03DC0C5731}" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{46557475-F918-45B8-BE26-581EB4A1248B}" name="Class" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{ADDF07BC-E66D-4A9F-9EDD-2A8497EB9E18}" name="Cost" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{FA9CCFC4-9180-49BD-A059-9CBA291D56D3}" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{DAB40101-F48C-4DD8-8028-2F85A372DA70}" name="Type" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E2374C90-DADE-44EB-BA8D-EB0AA4CDD87C}" name="Rarity" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{0F9EDB94-EA9F-4FE5-93E0-9705906A7149}" name="Heroes" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4550,20 +5345,20 @@
   </sheetPr>
   <dimension ref="A1:AA977"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
@@ -37204,13 +37999,11 @@
       <c r="H977" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I252" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I252">
-      <sortCondition ref="A1:A252"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -37222,19 +38015,19 @@
   <dimension ref="A1:AB975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="69.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
@@ -70798,12 +71591,10 @@
       <c r="AB975" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I253" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I253">
-      <sortCondition ref="A1:A253"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -70811,13 +71602,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE76972C-F7BB-4769-A2DA-F955752C828E}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -71515,8 +72308,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G30" xr:uid="{EE76972C-F7BB-4769-A2DA-F955752C828E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -71524,7 +72319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119F6436-4A53-4897-9FD1-3930D7723CA0}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -72226,5 +73023,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>